--- a/data/neighborhoodsummaryclean2017-09-25.xlsx
+++ b/data/neighborhoodsummaryclean2017-09-25.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/Boston-311-Services/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hata/Documents/Boston-311-Services/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12580" windowHeight="11080" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Allston" sheetId="1" r:id="rId1"/>
